--- a/HW2/Heads_BoxModel.xlsx
+++ b/HW2/Heads_BoxModel.xlsx
@@ -8,41 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hw-PortilloD/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{E3C48FDA-D960-444D-98A6-6B95A72A3257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{664F00BE-2D66-4A5C-9AA6-3CADF5B5E70D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{E3C48FDA-D960-444D-98A6-6B95A72A3257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7BAA63E-90BD-4BA4-B0C5-E81FF9A56CA6}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="405" windowWidth="24375" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoxModel_Manual_update" sheetId="1" r:id="rId1"/>
-    <sheet name="k=7" sheetId="2" r:id="rId2"/>
+    <sheet name="heads" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="flux" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'k=7'!$B$10:$Z$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'k=7'!$B$11:$Z$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'k=7'!$B$20:$Z$20</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'k=7'!$B$21:$Z$21</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'k=7'!$B$22:$Z$22</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'k=7'!$B$23:$Z$23</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'k=7'!$B$24:$Z$24</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'k=7'!$B$25:$Z$25</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'k=7'!$B$2:$Z$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'k=7'!$B$3:$Z$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'k=7'!$B$4:$Z$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'k=7'!$B$5:$Z$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'k=7'!$B$12:$Z$12</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'k=7'!$B$6:$Z$6</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'k=7'!$B$7:$Z$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'k=7'!$B$8:$Z$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'k=7'!$B$9:$Z$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'k=7'!$B$13:$Z$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'k=7'!$B$14:$Z$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'k=7'!$B$15:$Z$15</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'k=7'!$B$16:$Z$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'k=7'!$B$17:$Z$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'k=7'!$B$18:$Z$18</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'k=7'!$B$19:$Z$19</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1084,7 +1060,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Homogeneous Modle k=7</a:t>
+              <a:t>Homogeneous Modle</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1105,26 +1081,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -1197,7 +1153,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$2:$Z$2</c:f>
+              <c:f>heads!$B$2:$Z$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1302,7 +1258,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$3:$Z$3</c:f>
+              <c:f>heads!$B$3:$Z$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1407,7 +1363,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$4:$Z$4</c:f>
+              <c:f>heads!$B$4:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1514,7 +1470,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$5:$Z$5</c:f>
+              <c:f>heads!$B$5:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1621,7 +1577,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$6:$Z$6</c:f>
+              <c:f>heads!$B$6:$Z$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1728,7 +1684,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$7:$Z$7</c:f>
+              <c:f>heads!$B$7:$Z$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1836,7 +1792,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$8:$Z$8</c:f>
+              <c:f>heads!$B$8:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1944,7 +1900,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$9:$Z$9</c:f>
+              <c:f>heads!$B$9:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2052,7 +2008,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$10:$Z$10</c:f>
+              <c:f>heads!$B$10:$Z$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2159,7 +2115,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$11:$Z$11</c:f>
+              <c:f>heads!$B$11:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2266,7 +2222,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$12:$Z$12</c:f>
+              <c:f>heads!$B$12:$Z$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2373,7 +2329,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$13:$Z$13</c:f>
+              <c:f>heads!$B$13:$Z$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2481,7 +2437,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$14:$Z$14</c:f>
+              <c:f>heads!$B$14:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2589,7 +2545,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$15:$Z$15</c:f>
+              <c:f>heads!$B$15:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2697,7 +2653,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$16:$Z$16</c:f>
+              <c:f>heads!$B$16:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2804,7 +2760,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$17:$Z$17</c:f>
+              <c:f>heads!$B$17:$Z$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2911,7 +2867,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$18:$Z$18</c:f>
+              <c:f>heads!$B$18:$Z$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3018,7 +2974,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$19:$Z$19</c:f>
+              <c:f>heads!$B$19:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3126,7 +3082,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$20:$Z$20</c:f>
+              <c:f>heads!$B$20:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3234,7 +3190,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$21:$Z$21</c:f>
+              <c:f>heads!$B$21:$Z$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3342,7 +3298,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$22:$Z$22</c:f>
+              <c:f>heads!$B$22:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3449,7 +3405,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$22:$Z$22</c:f>
+              <c:f>heads!$B$22:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3556,7 +3512,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$23:$Z$23</c:f>
+              <c:f>heads!$B$23:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3663,7 +3619,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$24:$Z$24</c:f>
+              <c:f>heads!$B$24:$Z$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3771,7 +3727,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'k=7'!$B$25:$Z$25</c:f>
+              <c:f>heads!$B$25:$Z$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4316,6 +4272,1337 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Flux</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>flux!$B$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44000000000000128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.43999999999999773</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.42000000000000171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>flux!$B$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E83B-4698-9A9E-0B3C06386BEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399680272"/>
+        <c:axId val="399681104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>flux</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>flux!$B$2:$Z$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="25"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>flux!$C$3:$Z$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>0.28000000000000114</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.44000000000000128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.43999999999999773</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.43999999999999773</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.41999999999999815</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.42000000000000171</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E83B-4698-9A9E-0B3C06386BEF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399680272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Flux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m/d)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399681104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="399681104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dist</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> from const head</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399680272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4337,6 +5624,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5676847-6ADD-4D59-A611-5D828DA5F4DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD07D1E0-04E3-4FAB-A040-77F3FCDC854B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4656,7 +5984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
@@ -5752,7 +7080,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,4 +9166,4714 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D10B57-15EE-4728-9A40-72371E7F4E6F}">
+  <dimension ref="A3:Z28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22E6296-262C-4EF7-9937-E15E979C812F}">
+  <dimension ref="A2:Z27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>16</v>
+      </c>
+      <c r="R2">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+      <c r="T2">
+        <v>19</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>21</v>
+      </c>
+      <c r="W2">
+        <v>22</v>
+      </c>
+      <c r="X2">
+        <v>23</v>
+      </c>
+      <c r="Y2">
+        <v>24</v>
+      </c>
+      <c r="Z2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>(heads!B2-heads!C2)*(Sheet1!C4+Sheet1!B4)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D3">
+        <f>(heads!C2-heads!D2)*(Sheet1!D4+Sheet1!C4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E3">
+        <f>(heads!D2-heads!E2)*(Sheet1!E4+Sheet1!D4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F3">
+        <f>(heads!E2-heads!F2)*(Sheet1!F4+Sheet1!E4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G3">
+        <f>(heads!F2-heads!G2)*(Sheet1!G4+Sheet1!F4)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H3">
+        <f>(heads!G2-heads!H2)*(Sheet1!H4+Sheet1!G4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I3">
+        <f>(heads!H2-heads!I2)*(Sheet1!I4+Sheet1!H4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J3">
+        <f>(heads!I2-heads!J2)*(Sheet1!J4+Sheet1!I4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K3">
+        <f>(heads!J2-heads!K2)*(Sheet1!K4+Sheet1!J4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L3">
+        <f>(heads!K2-heads!L2)*(Sheet1!L4+Sheet1!K4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M3">
+        <f>(heads!L2-heads!M2)*(Sheet1!M4+Sheet1!L4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N3">
+        <f>(heads!M2-heads!N2)*(Sheet1!N4+Sheet1!M4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O3">
+        <f>(heads!N2-heads!O2)*(Sheet1!O4+Sheet1!N4)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P3">
+        <f>(heads!O2-heads!P2)*(Sheet1!P4+Sheet1!O4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q3">
+        <f>(heads!P2-heads!Q2)*(Sheet1!Q4+Sheet1!P4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R3">
+        <f>(heads!Q2-heads!R2)*(Sheet1!R4+Sheet1!Q4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S3">
+        <f>(heads!R2-heads!S2)*(Sheet1!S4+Sheet1!R4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T3">
+        <f>(heads!S2-heads!T2)*(Sheet1!T4+Sheet1!S4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U3">
+        <f>(heads!T2-heads!U2)*(Sheet1!U4+Sheet1!T4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V3">
+        <f>(heads!U2-heads!V2)*(Sheet1!V4+Sheet1!U4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W3">
+        <f>(heads!V2-heads!W2)*(Sheet1!W4+Sheet1!V4)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X3">
+        <f>(heads!W2-heads!X2)*(Sheet1!X4+Sheet1!W4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y3">
+        <f>(heads!X2-heads!Y2)*(Sheet1!Y4+Sheet1!X4)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z3">
+        <f>(heads!Y2-heads!Z2)*(Sheet1!Z4+Sheet1!Y4)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>(heads!B3-heads!C3)*(Sheet1!C5+Sheet1!B5)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D4">
+        <f>(heads!C3-heads!D3)*(Sheet1!D5+Sheet1!C5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E4">
+        <f>(heads!D3-heads!E3)*(Sheet1!E5+Sheet1!D5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F4">
+        <f>(heads!E3-heads!F3)*(Sheet1!F5+Sheet1!E5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G4">
+        <f>(heads!F3-heads!G3)*(Sheet1!G5+Sheet1!F5)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H4">
+        <f>(heads!G3-heads!H3)*(Sheet1!H5+Sheet1!G5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I4">
+        <f>(heads!H3-heads!I3)*(Sheet1!I5+Sheet1!H5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J4">
+        <f>(heads!I3-heads!J3)*(Sheet1!J5+Sheet1!I5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K4">
+        <f>(heads!J3-heads!K3)*(Sheet1!K5+Sheet1!J5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L4">
+        <f>(heads!K3-heads!L3)*(Sheet1!L5+Sheet1!K5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M4">
+        <f>(heads!L3-heads!M3)*(Sheet1!M5+Sheet1!L5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N4">
+        <f>(heads!M3-heads!N3)*(Sheet1!N5+Sheet1!M5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O4">
+        <f>(heads!N3-heads!O3)*(Sheet1!O5+Sheet1!N5)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P4">
+        <f>(heads!O3-heads!P3)*(Sheet1!P5+Sheet1!O5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q4">
+        <f>(heads!P3-heads!Q3)*(Sheet1!Q5+Sheet1!P5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R4">
+        <f>(heads!Q3-heads!R3)*(Sheet1!R5+Sheet1!Q5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S4">
+        <f>(heads!R3-heads!S3)*(Sheet1!S5+Sheet1!R5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T4">
+        <f>(heads!S3-heads!T3)*(Sheet1!T5+Sheet1!S5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U4">
+        <f>(heads!T3-heads!U3)*(Sheet1!U5+Sheet1!T5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V4">
+        <f>(heads!U3-heads!V3)*(Sheet1!V5+Sheet1!U5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W4">
+        <f>(heads!V3-heads!W3)*(Sheet1!W5+Sheet1!V5)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X4">
+        <f>(heads!W3-heads!X3)*(Sheet1!X5+Sheet1!W5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y4">
+        <f>(heads!X3-heads!Y3)*(Sheet1!Y5+Sheet1!X5)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z4">
+        <f>(heads!Y3-heads!Z3)*(Sheet1!Z5+Sheet1!Y5)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>(heads!B4-heads!C4)*(Sheet1!C6+Sheet1!B6)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D5">
+        <f>(heads!C4-heads!D4)*(Sheet1!D6+Sheet1!C6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E5">
+        <f>(heads!D4-heads!E4)*(Sheet1!E6+Sheet1!D6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F5">
+        <f>(heads!E4-heads!F4)*(Sheet1!F6+Sheet1!E6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G5">
+        <f>(heads!F4-heads!G4)*(Sheet1!G6+Sheet1!F6)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H5">
+        <f>(heads!G4-heads!H4)*(Sheet1!H6+Sheet1!G6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I5">
+        <f>(heads!H4-heads!I4)*(Sheet1!I6+Sheet1!H6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J5">
+        <f>(heads!I4-heads!J4)*(Sheet1!J6+Sheet1!I6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K5">
+        <f>(heads!J4-heads!K4)*(Sheet1!K6+Sheet1!J6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L5">
+        <f>(heads!K4-heads!L4)*(Sheet1!L6+Sheet1!K6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M5">
+        <f>(heads!L4-heads!M4)*(Sheet1!M6+Sheet1!L6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N5">
+        <f>(heads!M4-heads!N4)*(Sheet1!N6+Sheet1!M6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O5">
+        <f>(heads!N4-heads!O4)*(Sheet1!O6+Sheet1!N6)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P5">
+        <f>(heads!O4-heads!P4)*(Sheet1!P6+Sheet1!O6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q5">
+        <f>(heads!P4-heads!Q4)*(Sheet1!Q6+Sheet1!P6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R5">
+        <f>(heads!Q4-heads!R4)*(Sheet1!R6+Sheet1!Q6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S5">
+        <f>(heads!R4-heads!S4)*(Sheet1!S6+Sheet1!R6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T5">
+        <f>(heads!S4-heads!T4)*(Sheet1!T6+Sheet1!S6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U5">
+        <f>(heads!T4-heads!U4)*(Sheet1!U6+Sheet1!T6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V5">
+        <f>(heads!U4-heads!V4)*(Sheet1!V6+Sheet1!U6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W5">
+        <f>(heads!V4-heads!W4)*(Sheet1!W6+Sheet1!V6)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X5">
+        <f>(heads!W4-heads!X4)*(Sheet1!X6+Sheet1!W6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y5">
+        <f>(heads!X4-heads!Y4)*(Sheet1!Y6+Sheet1!X6)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z5">
+        <f>(heads!Y4-heads!Z4)*(Sheet1!Z6+Sheet1!Y6)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>(heads!B5-heads!C5)*(Sheet1!C7+Sheet1!B7)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D6">
+        <f>(heads!C5-heads!D5)*(Sheet1!D7+Sheet1!C7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E6">
+        <f>(heads!D5-heads!E5)*(Sheet1!E7+Sheet1!D7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F6">
+        <f>(heads!E5-heads!F5)*(Sheet1!F7+Sheet1!E7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G6">
+        <f>(heads!F5-heads!G5)*(Sheet1!G7+Sheet1!F7)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H6">
+        <f>(heads!G5-heads!H5)*(Sheet1!H7+Sheet1!G7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I6">
+        <f>(heads!H5-heads!I5)*(Sheet1!I7+Sheet1!H7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J6">
+        <f>(heads!I5-heads!J5)*(Sheet1!J7+Sheet1!I7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K6">
+        <f>(heads!J5-heads!K5)*(Sheet1!K7+Sheet1!J7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L6">
+        <f>(heads!K5-heads!L5)*(Sheet1!L7+Sheet1!K7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M6">
+        <f>(heads!L5-heads!M5)*(Sheet1!M7+Sheet1!L7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N6">
+        <f>(heads!M5-heads!N5)*(Sheet1!N7+Sheet1!M7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O6">
+        <f>(heads!N5-heads!O5)*(Sheet1!O7+Sheet1!N7)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P6">
+        <f>(heads!O5-heads!P5)*(Sheet1!P7+Sheet1!O7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q6">
+        <f>(heads!P5-heads!Q5)*(Sheet1!Q7+Sheet1!P7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R6">
+        <f>(heads!Q5-heads!R5)*(Sheet1!R7+Sheet1!Q7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S6">
+        <f>(heads!R5-heads!S5)*(Sheet1!S7+Sheet1!R7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T6">
+        <f>(heads!S5-heads!T5)*(Sheet1!T7+Sheet1!S7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U6">
+        <f>(heads!T5-heads!U5)*(Sheet1!U7+Sheet1!T7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V6">
+        <f>(heads!U5-heads!V5)*(Sheet1!V7+Sheet1!U7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W6">
+        <f>(heads!V5-heads!W5)*(Sheet1!W7+Sheet1!V7)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X6">
+        <f>(heads!W5-heads!X5)*(Sheet1!X7+Sheet1!W7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y6">
+        <f>(heads!X5-heads!Y5)*(Sheet1!Y7+Sheet1!X7)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z6">
+        <f>(heads!Y5-heads!Z5)*(Sheet1!Z7+Sheet1!Y7)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>(heads!B6-heads!C6)*(Sheet1!C8+Sheet1!B8)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D7">
+        <f>(heads!C6-heads!D6)*(Sheet1!D8+Sheet1!C8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E7">
+        <f>(heads!D6-heads!E6)*(Sheet1!E8+Sheet1!D8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F7">
+        <f>(heads!E6-heads!F6)*(Sheet1!F8+Sheet1!E8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G7">
+        <f>(heads!F6-heads!G6)*(Sheet1!G8+Sheet1!F8)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H7">
+        <f>(heads!G6-heads!H6)*(Sheet1!H8+Sheet1!G8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I7">
+        <f>(heads!H6-heads!I6)*(Sheet1!I8+Sheet1!H8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J7">
+        <f>(heads!I6-heads!J6)*(Sheet1!J8+Sheet1!I8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K7">
+        <f>(heads!J6-heads!K6)*(Sheet1!K8+Sheet1!J8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L7">
+        <f>(heads!K6-heads!L6)*(Sheet1!L8+Sheet1!K8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M7">
+        <f>(heads!L6-heads!M6)*(Sheet1!M8+Sheet1!L8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N7">
+        <f>(heads!M6-heads!N6)*(Sheet1!N8+Sheet1!M8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O7">
+        <f>(heads!N6-heads!O6)*(Sheet1!O8+Sheet1!N8)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P7">
+        <f>(heads!O6-heads!P6)*(Sheet1!P8+Sheet1!O8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q7">
+        <f>(heads!P6-heads!Q6)*(Sheet1!Q8+Sheet1!P8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R7">
+        <f>(heads!Q6-heads!R6)*(Sheet1!R8+Sheet1!Q8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S7">
+        <f>(heads!R6-heads!S6)*(Sheet1!S8+Sheet1!R8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T7">
+        <f>(heads!S6-heads!T6)*(Sheet1!T8+Sheet1!S8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U7">
+        <f>(heads!T6-heads!U6)*(Sheet1!U8+Sheet1!T8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V7">
+        <f>(heads!U6-heads!V6)*(Sheet1!V8+Sheet1!U8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W7">
+        <f>(heads!V6-heads!W6)*(Sheet1!W8+Sheet1!V8)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X7">
+        <f>(heads!W6-heads!X6)*(Sheet1!X8+Sheet1!W8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y7">
+        <f>(heads!X6-heads!Y6)*(Sheet1!Y8+Sheet1!X8)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z7">
+        <f>(heads!Y6-heads!Z6)*(Sheet1!Z8+Sheet1!Y8)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>(heads!B7-heads!C7)*(Sheet1!C9+Sheet1!B9)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D8">
+        <f>(heads!C7-heads!D7)*(Sheet1!D9+Sheet1!C9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E8">
+        <f>(heads!D7-heads!E7)*(Sheet1!E9+Sheet1!D9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F8">
+        <f>(heads!E7-heads!F7)*(Sheet1!F9+Sheet1!E9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G8">
+        <f>(heads!F7-heads!G7)*(Sheet1!G9+Sheet1!F9)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H8">
+        <f>(heads!G7-heads!H7)*(Sheet1!H9+Sheet1!G9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I8">
+        <f>(heads!H7-heads!I7)*(Sheet1!I9+Sheet1!H9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J8">
+        <f>(heads!I7-heads!J7)*(Sheet1!J9+Sheet1!I9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K8">
+        <f>(heads!J7-heads!K7)*(Sheet1!K9+Sheet1!J9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L8">
+        <f>(heads!K7-heads!L7)*(Sheet1!L9+Sheet1!K9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M8">
+        <f>(heads!L7-heads!M7)*(Sheet1!M9+Sheet1!L9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N8">
+        <f>(heads!M7-heads!N7)*(Sheet1!N9+Sheet1!M9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O8">
+        <f>(heads!N7-heads!O7)*(Sheet1!O9+Sheet1!N9)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P8">
+        <f>(heads!O7-heads!P7)*(Sheet1!P9+Sheet1!O9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q8">
+        <f>(heads!P7-heads!Q7)*(Sheet1!Q9+Sheet1!P9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R8">
+        <f>(heads!Q7-heads!R7)*(Sheet1!R9+Sheet1!Q9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S8">
+        <f>(heads!R7-heads!S7)*(Sheet1!S9+Sheet1!R9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T8">
+        <f>(heads!S7-heads!T7)*(Sheet1!T9+Sheet1!S9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U8">
+        <f>(heads!T7-heads!U7)*(Sheet1!U9+Sheet1!T9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V8">
+        <f>(heads!U7-heads!V7)*(Sheet1!V9+Sheet1!U9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W8">
+        <f>(heads!V7-heads!W7)*(Sheet1!W9+Sheet1!V9)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X8">
+        <f>(heads!W7-heads!X7)*(Sheet1!X9+Sheet1!W9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y8">
+        <f>(heads!X7-heads!Y7)*(Sheet1!Y9+Sheet1!X9)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z8">
+        <f>(heads!Y7-heads!Z7)*(Sheet1!Z9+Sheet1!Y9)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f>(heads!B8-heads!C8)*(Sheet1!C10+Sheet1!B10)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D9">
+        <f>(heads!C8-heads!D8)*(Sheet1!D10+Sheet1!C10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E9">
+        <f>(heads!D8-heads!E8)*(Sheet1!E10+Sheet1!D10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F9">
+        <f>(heads!E8-heads!F8)*(Sheet1!F10+Sheet1!E10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G9">
+        <f>(heads!F8-heads!G8)*(Sheet1!G10+Sheet1!F10)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H9">
+        <f>(heads!G8-heads!H8)*(Sheet1!H10+Sheet1!G10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I9">
+        <f>(heads!H8-heads!I8)*(Sheet1!I10+Sheet1!H10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J9">
+        <f>(heads!I8-heads!J8)*(Sheet1!J10+Sheet1!I10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K9">
+        <f>(heads!J8-heads!K8)*(Sheet1!K10+Sheet1!J10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L9">
+        <f>(heads!K8-heads!L8)*(Sheet1!L10+Sheet1!K10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M9">
+        <f>(heads!L8-heads!M8)*(Sheet1!M10+Sheet1!L10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N9">
+        <f>(heads!M8-heads!N8)*(Sheet1!N10+Sheet1!M10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O9">
+        <f>(heads!N8-heads!O8)*(Sheet1!O10+Sheet1!N10)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P9">
+        <f>(heads!O8-heads!P8)*(Sheet1!P10+Sheet1!O10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q9">
+        <f>(heads!P8-heads!Q8)*(Sheet1!Q10+Sheet1!P10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R9">
+        <f>(heads!Q8-heads!R8)*(Sheet1!R10+Sheet1!Q10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S9">
+        <f>(heads!R8-heads!S8)*(Sheet1!S10+Sheet1!R10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T9">
+        <f>(heads!S8-heads!T8)*(Sheet1!T10+Sheet1!S10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U9">
+        <f>(heads!T8-heads!U8)*(Sheet1!U10+Sheet1!T10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V9">
+        <f>(heads!U8-heads!V8)*(Sheet1!V10+Sheet1!U10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W9">
+        <f>(heads!V8-heads!W8)*(Sheet1!W10+Sheet1!V10)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X9">
+        <f>(heads!W8-heads!X8)*(Sheet1!X10+Sheet1!W10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y9">
+        <f>(heads!X8-heads!Y8)*(Sheet1!Y10+Sheet1!X10)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z9">
+        <f>(heads!Y8-heads!Z8)*(Sheet1!Z10+Sheet1!Y10)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <f>(heads!B9-heads!C9)*(Sheet1!C11+Sheet1!B11)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D10">
+        <f>(heads!C9-heads!D9)*(Sheet1!D11+Sheet1!C11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E10">
+        <f>(heads!D9-heads!E9)*(Sheet1!E11+Sheet1!D11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F10">
+        <f>(heads!E9-heads!F9)*(Sheet1!F11+Sheet1!E11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G10">
+        <f>(heads!F9-heads!G9)*(Sheet1!G11+Sheet1!F11)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H10">
+        <f>(heads!G9-heads!H9)*(Sheet1!H11+Sheet1!G11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I10">
+        <f>(heads!H9-heads!I9)*(Sheet1!I11+Sheet1!H11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J10">
+        <f>(heads!I9-heads!J9)*(Sheet1!J11+Sheet1!I11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K10">
+        <f>(heads!J9-heads!K9)*(Sheet1!K11+Sheet1!J11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L10">
+        <f>(heads!K9-heads!L9)*(Sheet1!L11+Sheet1!K11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M10">
+        <f>(heads!L9-heads!M9)*(Sheet1!M11+Sheet1!L11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N10">
+        <f>(heads!M9-heads!N9)*(Sheet1!N11+Sheet1!M11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O10">
+        <f>(heads!N9-heads!O9)*(Sheet1!O11+Sheet1!N11)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P10">
+        <f>(heads!O9-heads!P9)*(Sheet1!P11+Sheet1!O11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q10">
+        <f>(heads!P9-heads!Q9)*(Sheet1!Q11+Sheet1!P11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R10">
+        <f>(heads!Q9-heads!R9)*(Sheet1!R11+Sheet1!Q11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S10">
+        <f>(heads!R9-heads!S9)*(Sheet1!S11+Sheet1!R11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T10">
+        <f>(heads!S9-heads!T9)*(Sheet1!T11+Sheet1!S11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U10">
+        <f>(heads!T9-heads!U9)*(Sheet1!U11+Sheet1!T11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V10">
+        <f>(heads!U9-heads!V9)*(Sheet1!V11+Sheet1!U11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W10">
+        <f>(heads!V9-heads!W9)*(Sheet1!W11+Sheet1!V11)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X10">
+        <f>(heads!W9-heads!X9)*(Sheet1!X11+Sheet1!W11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y10">
+        <f>(heads!X9-heads!Y9)*(Sheet1!Y11+Sheet1!X11)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z10">
+        <f>(heads!Y9-heads!Z9)*(Sheet1!Z11+Sheet1!Y11)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f>(heads!B10-heads!C10)*(Sheet1!C12+Sheet1!B12)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D11">
+        <f>(heads!C10-heads!D10)*(Sheet1!D12+Sheet1!C12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E11">
+        <f>(heads!D10-heads!E10)*(Sheet1!E12+Sheet1!D12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F11">
+        <f>(heads!E10-heads!F10)*(Sheet1!F12+Sheet1!E12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G11">
+        <f>(heads!F10-heads!G10)*(Sheet1!G12+Sheet1!F12)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H11">
+        <f>(heads!G10-heads!H10)*(Sheet1!H12+Sheet1!G12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I11">
+        <f>(heads!H10-heads!I10)*(Sheet1!I12+Sheet1!H12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J11">
+        <f>(heads!I10-heads!J10)*(Sheet1!J12+Sheet1!I12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K11">
+        <f>(heads!J10-heads!K10)*(Sheet1!K12+Sheet1!J12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L11">
+        <f>(heads!K10-heads!L10)*(Sheet1!L12+Sheet1!K12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M11">
+        <f>(heads!L10-heads!M10)*(Sheet1!M12+Sheet1!L12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N11">
+        <f>(heads!M10-heads!N10)*(Sheet1!N12+Sheet1!M12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O11">
+        <f>(heads!N10-heads!O10)*(Sheet1!O12+Sheet1!N12)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P11">
+        <f>(heads!O10-heads!P10)*(Sheet1!P12+Sheet1!O12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q11">
+        <f>(heads!P10-heads!Q10)*(Sheet1!Q12+Sheet1!P12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R11">
+        <f>(heads!Q10-heads!R10)*(Sheet1!R12+Sheet1!Q12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S11">
+        <f>(heads!R10-heads!S10)*(Sheet1!S12+Sheet1!R12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T11">
+        <f>(heads!S10-heads!T10)*(Sheet1!T12+Sheet1!S12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U11">
+        <f>(heads!T10-heads!U10)*(Sheet1!U12+Sheet1!T12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V11">
+        <f>(heads!U10-heads!V10)*(Sheet1!V12+Sheet1!U12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W11">
+        <f>(heads!V10-heads!W10)*(Sheet1!W12+Sheet1!V12)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X11">
+        <f>(heads!W10-heads!X10)*(Sheet1!X12+Sheet1!W12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y11">
+        <f>(heads!X10-heads!Y10)*(Sheet1!Y12+Sheet1!X12)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z11">
+        <f>(heads!Y10-heads!Z10)*(Sheet1!Z12+Sheet1!Y12)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>(heads!B11-heads!C11)*(Sheet1!C13+Sheet1!B13)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D12">
+        <f>(heads!C11-heads!D11)*(Sheet1!D13+Sheet1!C13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E12">
+        <f>(heads!D11-heads!E11)*(Sheet1!E13+Sheet1!D13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F12">
+        <f>(heads!E11-heads!F11)*(Sheet1!F13+Sheet1!E13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G12">
+        <f>(heads!F11-heads!G11)*(Sheet1!G13+Sheet1!F13)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H12">
+        <f>(heads!G11-heads!H11)*(Sheet1!H13+Sheet1!G13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I12">
+        <f>(heads!H11-heads!I11)*(Sheet1!I13+Sheet1!H13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J12">
+        <f>(heads!I11-heads!J11)*(Sheet1!J13+Sheet1!I13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K12">
+        <f>(heads!J11-heads!K11)*(Sheet1!K13+Sheet1!J13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L12">
+        <f>(heads!K11-heads!L11)*(Sheet1!L13+Sheet1!K13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M12">
+        <f>(heads!L11-heads!M11)*(Sheet1!M13+Sheet1!L13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N12">
+        <f>(heads!M11-heads!N11)*(Sheet1!N13+Sheet1!M13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O12">
+        <f>(heads!N11-heads!O11)*(Sheet1!O13+Sheet1!N13)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P12">
+        <f>(heads!O11-heads!P11)*(Sheet1!P13+Sheet1!O13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q12">
+        <f>(heads!P11-heads!Q11)*(Sheet1!Q13+Sheet1!P13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R12">
+        <f>(heads!Q11-heads!R11)*(Sheet1!R13+Sheet1!Q13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S12">
+        <f>(heads!R11-heads!S11)*(Sheet1!S13+Sheet1!R13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T12">
+        <f>(heads!S11-heads!T11)*(Sheet1!T13+Sheet1!S13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U12">
+        <f>(heads!T11-heads!U11)*(Sheet1!U13+Sheet1!T13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V12">
+        <f>(heads!U11-heads!V11)*(Sheet1!V13+Sheet1!U13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W12">
+        <f>(heads!V11-heads!W11)*(Sheet1!W13+Sheet1!V13)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X12">
+        <f>(heads!W11-heads!X11)*(Sheet1!X13+Sheet1!W13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y12">
+        <f>(heads!X11-heads!Y11)*(Sheet1!Y13+Sheet1!X13)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z12">
+        <f>(heads!Y11-heads!Z11)*(Sheet1!Z13+Sheet1!Y13)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f>(heads!B12-heads!C12)*(Sheet1!C14+Sheet1!B14)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D13">
+        <f>(heads!C12-heads!D12)*(Sheet1!D14+Sheet1!C14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E13">
+        <f>(heads!D12-heads!E12)*(Sheet1!E14+Sheet1!D14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F13">
+        <f>(heads!E12-heads!F12)*(Sheet1!F14+Sheet1!E14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G13">
+        <f>(heads!F12-heads!G12)*(Sheet1!G14+Sheet1!F14)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H13">
+        <f>(heads!G12-heads!H12)*(Sheet1!H14+Sheet1!G14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I13">
+        <f>(heads!H12-heads!I12)*(Sheet1!I14+Sheet1!H14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J13">
+        <f>(heads!I12-heads!J12)*(Sheet1!J14+Sheet1!I14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K13">
+        <f>(heads!J12-heads!K12)*(Sheet1!K14+Sheet1!J14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L13">
+        <f>(heads!K12-heads!L12)*(Sheet1!L14+Sheet1!K14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M13">
+        <f>(heads!L12-heads!M12)*(Sheet1!M14+Sheet1!L14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N13">
+        <f>(heads!M12-heads!N12)*(Sheet1!N14+Sheet1!M14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O13">
+        <f>(heads!N12-heads!O12)*(Sheet1!O14+Sheet1!N14)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P13">
+        <f>(heads!O12-heads!P12)*(Sheet1!P14+Sheet1!O14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q13">
+        <f>(heads!P12-heads!Q12)*(Sheet1!Q14+Sheet1!P14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R13">
+        <f>(heads!Q12-heads!R12)*(Sheet1!R14+Sheet1!Q14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S13">
+        <f>(heads!R12-heads!S12)*(Sheet1!S14+Sheet1!R14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T13">
+        <f>(heads!S12-heads!T12)*(Sheet1!T14+Sheet1!S14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U13">
+        <f>(heads!T12-heads!U12)*(Sheet1!U14+Sheet1!T14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V13">
+        <f>(heads!U12-heads!V12)*(Sheet1!V14+Sheet1!U14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W13">
+        <f>(heads!V12-heads!W12)*(Sheet1!W14+Sheet1!V14)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X13">
+        <f>(heads!W12-heads!X12)*(Sheet1!X14+Sheet1!W14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y13">
+        <f>(heads!X12-heads!Y12)*(Sheet1!Y14+Sheet1!X14)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z13">
+        <f>(heads!Y12-heads!Z12)*(Sheet1!Z14+Sheet1!Y14)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f>(heads!B13-heads!C13)*(Sheet1!C15+Sheet1!B15)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D14">
+        <f>(heads!C13-heads!D13)*(Sheet1!D15+Sheet1!C15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E14">
+        <f>(heads!D13-heads!E13)*(Sheet1!E15+Sheet1!D15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F14">
+        <f>(heads!E13-heads!F13)*(Sheet1!F15+Sheet1!E15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G14">
+        <f>(heads!F13-heads!G13)*(Sheet1!G15+Sheet1!F15)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H14">
+        <f>(heads!G13-heads!H13)*(Sheet1!H15+Sheet1!G15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I14">
+        <f>(heads!H13-heads!I13)*(Sheet1!I15+Sheet1!H15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J14">
+        <f>(heads!I13-heads!J13)*(Sheet1!J15+Sheet1!I15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K14">
+        <f>(heads!J13-heads!K13)*(Sheet1!K15+Sheet1!J15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L14">
+        <f>(heads!K13-heads!L13)*(Sheet1!L15+Sheet1!K15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M14">
+        <f>(heads!L13-heads!M13)*(Sheet1!M15+Sheet1!L15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N14">
+        <f>(heads!M13-heads!N13)*(Sheet1!N15+Sheet1!M15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O14">
+        <f>(heads!N13-heads!O13)*(Sheet1!O15+Sheet1!N15)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P14">
+        <f>(heads!O13-heads!P13)*(Sheet1!P15+Sheet1!O15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q14">
+        <f>(heads!P13-heads!Q13)*(Sheet1!Q15+Sheet1!P15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R14">
+        <f>(heads!Q13-heads!R13)*(Sheet1!R15+Sheet1!Q15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S14">
+        <f>(heads!R13-heads!S13)*(Sheet1!S15+Sheet1!R15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T14">
+        <f>(heads!S13-heads!T13)*(Sheet1!T15+Sheet1!S15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U14">
+        <f>(heads!T13-heads!U13)*(Sheet1!U15+Sheet1!T15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V14">
+        <f>(heads!U13-heads!V13)*(Sheet1!V15+Sheet1!U15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W14">
+        <f>(heads!V13-heads!W13)*(Sheet1!W15+Sheet1!V15)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X14">
+        <f>(heads!W13-heads!X13)*(Sheet1!X15+Sheet1!W15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y14">
+        <f>(heads!X13-heads!Y13)*(Sheet1!Y15+Sheet1!X15)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z14">
+        <f>(heads!Y13-heads!Z13)*(Sheet1!Z15+Sheet1!Y15)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f>(heads!B14-heads!C14)*(Sheet1!C16+Sheet1!B16)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D15">
+        <f>(heads!C14-heads!D14)*(Sheet1!D16+Sheet1!C16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E15">
+        <f>(heads!D14-heads!E14)*(Sheet1!E16+Sheet1!D16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F15">
+        <f>(heads!E14-heads!F14)*(Sheet1!F16+Sheet1!E16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G15">
+        <f>(heads!F14-heads!G14)*(Sheet1!G16+Sheet1!F16)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H15">
+        <f>(heads!G14-heads!H14)*(Sheet1!H16+Sheet1!G16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I15">
+        <f>(heads!H14-heads!I14)*(Sheet1!I16+Sheet1!H16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J15">
+        <f>(heads!I14-heads!J14)*(Sheet1!J16+Sheet1!I16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K15">
+        <f>(heads!J14-heads!K14)*(Sheet1!K16+Sheet1!J16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L15">
+        <f>(heads!K14-heads!L14)*(Sheet1!L16+Sheet1!K16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M15">
+        <f>(heads!L14-heads!M14)*(Sheet1!M16+Sheet1!L16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N15">
+        <f>(heads!M14-heads!N14)*(Sheet1!N16+Sheet1!M16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O15">
+        <f>(heads!N14-heads!O14)*(Sheet1!O16+Sheet1!N16)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P15">
+        <f>(heads!O14-heads!P14)*(Sheet1!P16+Sheet1!O16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q15">
+        <f>(heads!P14-heads!Q14)*(Sheet1!Q16+Sheet1!P16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R15">
+        <f>(heads!Q14-heads!R14)*(Sheet1!R16+Sheet1!Q16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S15">
+        <f>(heads!R14-heads!S14)*(Sheet1!S16+Sheet1!R16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T15">
+        <f>(heads!S14-heads!T14)*(Sheet1!T16+Sheet1!S16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U15">
+        <f>(heads!T14-heads!U14)*(Sheet1!U16+Sheet1!T16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V15">
+        <f>(heads!U14-heads!V14)*(Sheet1!V16+Sheet1!U16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W15">
+        <f>(heads!V14-heads!W14)*(Sheet1!W16+Sheet1!V16)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X15">
+        <f>(heads!W14-heads!X14)*(Sheet1!X16+Sheet1!W16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y15">
+        <f>(heads!X14-heads!Y14)*(Sheet1!Y16+Sheet1!X16)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z15">
+        <f>(heads!Y14-heads!Z14)*(Sheet1!Z16+Sheet1!Y16)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f>(heads!B15-heads!C15)*(Sheet1!C17+Sheet1!B17)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D16">
+        <f>(heads!C15-heads!D15)*(Sheet1!D17+Sheet1!C17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E16">
+        <f>(heads!D15-heads!E15)*(Sheet1!E17+Sheet1!D17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F16">
+        <f>(heads!E15-heads!F15)*(Sheet1!F17+Sheet1!E17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G16">
+        <f>(heads!F15-heads!G15)*(Sheet1!G17+Sheet1!F17)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H16">
+        <f>(heads!G15-heads!H15)*(Sheet1!H17+Sheet1!G17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I16">
+        <f>(heads!H15-heads!I15)*(Sheet1!I17+Sheet1!H17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J16">
+        <f>(heads!I15-heads!J15)*(Sheet1!J17+Sheet1!I17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K16">
+        <f>(heads!J15-heads!K15)*(Sheet1!K17+Sheet1!J17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L16">
+        <f>(heads!K15-heads!L15)*(Sheet1!L17+Sheet1!K17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M16">
+        <f>(heads!L15-heads!M15)*(Sheet1!M17+Sheet1!L17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N16">
+        <f>(heads!M15-heads!N15)*(Sheet1!N17+Sheet1!M17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O16">
+        <f>(heads!N15-heads!O15)*(Sheet1!O17+Sheet1!N17)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P16">
+        <f>(heads!O15-heads!P15)*(Sheet1!P17+Sheet1!O17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q16">
+        <f>(heads!P15-heads!Q15)*(Sheet1!Q17+Sheet1!P17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R16">
+        <f>(heads!Q15-heads!R15)*(Sheet1!R17+Sheet1!Q17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S16">
+        <f>(heads!R15-heads!S15)*(Sheet1!S17+Sheet1!R17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T16">
+        <f>(heads!S15-heads!T15)*(Sheet1!T17+Sheet1!S17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U16">
+        <f>(heads!T15-heads!U15)*(Sheet1!U17+Sheet1!T17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V16">
+        <f>(heads!U15-heads!V15)*(Sheet1!V17+Sheet1!U17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W16">
+        <f>(heads!V15-heads!W15)*(Sheet1!W17+Sheet1!V17)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X16">
+        <f>(heads!W15-heads!X15)*(Sheet1!X17+Sheet1!W17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y16">
+        <f>(heads!X15-heads!Y15)*(Sheet1!Y17+Sheet1!X17)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z16">
+        <f>(heads!Y15-heads!Z15)*(Sheet1!Z17+Sheet1!Y17)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>(heads!B16-heads!C16)*(Sheet1!C18+Sheet1!B18)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D17">
+        <f>(heads!C16-heads!D16)*(Sheet1!D18+Sheet1!C18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E17">
+        <f>(heads!D16-heads!E16)*(Sheet1!E18+Sheet1!D18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F17">
+        <f>(heads!E16-heads!F16)*(Sheet1!F18+Sheet1!E18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G17">
+        <f>(heads!F16-heads!G16)*(Sheet1!G18+Sheet1!F18)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H17">
+        <f>(heads!G16-heads!H16)*(Sheet1!H18+Sheet1!G18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I17">
+        <f>(heads!H16-heads!I16)*(Sheet1!I18+Sheet1!H18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J17">
+        <f>(heads!I16-heads!J16)*(Sheet1!J18+Sheet1!I18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K17">
+        <f>(heads!J16-heads!K16)*(Sheet1!K18+Sheet1!J18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L17">
+        <f>(heads!K16-heads!L16)*(Sheet1!L18+Sheet1!K18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M17">
+        <f>(heads!L16-heads!M16)*(Sheet1!M18+Sheet1!L18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N17">
+        <f>(heads!M16-heads!N16)*(Sheet1!N18+Sheet1!M18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O17">
+        <f>(heads!N16-heads!O16)*(Sheet1!O18+Sheet1!N18)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P17">
+        <f>(heads!O16-heads!P16)*(Sheet1!P18+Sheet1!O18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q17">
+        <f>(heads!P16-heads!Q16)*(Sheet1!Q18+Sheet1!P18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R17">
+        <f>(heads!Q16-heads!R16)*(Sheet1!R18+Sheet1!Q18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S17">
+        <f>(heads!R16-heads!S16)*(Sheet1!S18+Sheet1!R18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T17">
+        <f>(heads!S16-heads!T16)*(Sheet1!T18+Sheet1!S18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U17">
+        <f>(heads!T16-heads!U16)*(Sheet1!U18+Sheet1!T18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V17">
+        <f>(heads!U16-heads!V16)*(Sheet1!V18+Sheet1!U18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W17">
+        <f>(heads!V16-heads!W16)*(Sheet1!W18+Sheet1!V18)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X17">
+        <f>(heads!W16-heads!X16)*(Sheet1!X18+Sheet1!W18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y17">
+        <f>(heads!X16-heads!Y16)*(Sheet1!Y18+Sheet1!X18)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z17">
+        <f>(heads!Y16-heads!Z16)*(Sheet1!Z18+Sheet1!Y18)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f>(heads!B17-heads!C17)*(Sheet1!C19+Sheet1!B19)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D18">
+        <f>(heads!C17-heads!D17)*(Sheet1!D19+Sheet1!C19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E18">
+        <f>(heads!D17-heads!E17)*(Sheet1!E19+Sheet1!D19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F18">
+        <f>(heads!E17-heads!F17)*(Sheet1!F19+Sheet1!E19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G18">
+        <f>(heads!F17-heads!G17)*(Sheet1!G19+Sheet1!F19)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H18">
+        <f>(heads!G17-heads!H17)*(Sheet1!H19+Sheet1!G19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I18">
+        <f>(heads!H17-heads!I17)*(Sheet1!I19+Sheet1!H19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J18">
+        <f>(heads!I17-heads!J17)*(Sheet1!J19+Sheet1!I19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K18">
+        <f>(heads!J17-heads!K17)*(Sheet1!K19+Sheet1!J19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L18">
+        <f>(heads!K17-heads!L17)*(Sheet1!L19+Sheet1!K19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M18">
+        <f>(heads!L17-heads!M17)*(Sheet1!M19+Sheet1!L19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N18">
+        <f>(heads!M17-heads!N17)*(Sheet1!N19+Sheet1!M19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O18">
+        <f>(heads!N17-heads!O17)*(Sheet1!O19+Sheet1!N19)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P18">
+        <f>(heads!O17-heads!P17)*(Sheet1!P19+Sheet1!O19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q18">
+        <f>(heads!P17-heads!Q17)*(Sheet1!Q19+Sheet1!P19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R18">
+        <f>(heads!Q17-heads!R17)*(Sheet1!R19+Sheet1!Q19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S18">
+        <f>(heads!R17-heads!S17)*(Sheet1!S19+Sheet1!R19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T18">
+        <f>(heads!S17-heads!T17)*(Sheet1!T19+Sheet1!S19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U18">
+        <f>(heads!T17-heads!U17)*(Sheet1!U19+Sheet1!T19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V18">
+        <f>(heads!U17-heads!V17)*(Sheet1!V19+Sheet1!U19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W18">
+        <f>(heads!V17-heads!W17)*(Sheet1!W19+Sheet1!V19)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X18">
+        <f>(heads!W17-heads!X17)*(Sheet1!X19+Sheet1!W19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y18">
+        <f>(heads!X17-heads!Y17)*(Sheet1!Y19+Sheet1!X19)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z18">
+        <f>(heads!Y17-heads!Z17)*(Sheet1!Z19+Sheet1!Y19)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f>(heads!B18-heads!C18)*(Sheet1!C20+Sheet1!B20)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D19">
+        <f>(heads!C18-heads!D18)*(Sheet1!D20+Sheet1!C20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E19">
+        <f>(heads!D18-heads!E18)*(Sheet1!E20+Sheet1!D20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F19">
+        <f>(heads!E18-heads!F18)*(Sheet1!F20+Sheet1!E20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G19">
+        <f>(heads!F18-heads!G18)*(Sheet1!G20+Sheet1!F20)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H19">
+        <f>(heads!G18-heads!H18)*(Sheet1!H20+Sheet1!G20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I19">
+        <f>(heads!H18-heads!I18)*(Sheet1!I20+Sheet1!H20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J19">
+        <f>(heads!I18-heads!J18)*(Sheet1!J20+Sheet1!I20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K19">
+        <f>(heads!J18-heads!K18)*(Sheet1!K20+Sheet1!J20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L19">
+        <f>(heads!K18-heads!L18)*(Sheet1!L20+Sheet1!K20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M19">
+        <f>(heads!L18-heads!M18)*(Sheet1!M20+Sheet1!L20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N19">
+        <f>(heads!M18-heads!N18)*(Sheet1!N20+Sheet1!M20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O19">
+        <f>(heads!N18-heads!O18)*(Sheet1!O20+Sheet1!N20)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P19">
+        <f>(heads!O18-heads!P18)*(Sheet1!P20+Sheet1!O20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q19">
+        <f>(heads!P18-heads!Q18)*(Sheet1!Q20+Sheet1!P20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R19">
+        <f>(heads!Q18-heads!R18)*(Sheet1!R20+Sheet1!Q20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S19">
+        <f>(heads!R18-heads!S18)*(Sheet1!S20+Sheet1!R20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T19">
+        <f>(heads!S18-heads!T18)*(Sheet1!T20+Sheet1!S20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U19">
+        <f>(heads!T18-heads!U18)*(Sheet1!U20+Sheet1!T20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V19">
+        <f>(heads!U18-heads!V18)*(Sheet1!V20+Sheet1!U20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W19">
+        <f>(heads!V18-heads!W18)*(Sheet1!W20+Sheet1!V20)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X19">
+        <f>(heads!W18-heads!X18)*(Sheet1!X20+Sheet1!W20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y19">
+        <f>(heads!X18-heads!Y18)*(Sheet1!Y20+Sheet1!X20)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z19">
+        <f>(heads!Y18-heads!Z18)*(Sheet1!Z20+Sheet1!Y20)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f>(heads!B19-heads!C19)*(Sheet1!C21+Sheet1!B21)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D20">
+        <f>(heads!C19-heads!D19)*(Sheet1!D21+Sheet1!C21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E20">
+        <f>(heads!D19-heads!E19)*(Sheet1!E21+Sheet1!D21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F20">
+        <f>(heads!E19-heads!F19)*(Sheet1!F21+Sheet1!E21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G20">
+        <f>(heads!F19-heads!G19)*(Sheet1!G21+Sheet1!F21)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H20">
+        <f>(heads!G19-heads!H19)*(Sheet1!H21+Sheet1!G21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I20">
+        <f>(heads!H19-heads!I19)*(Sheet1!I21+Sheet1!H21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J20">
+        <f>(heads!I19-heads!J19)*(Sheet1!J21+Sheet1!I21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K20">
+        <f>(heads!J19-heads!K19)*(Sheet1!K21+Sheet1!J21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L20">
+        <f>(heads!K19-heads!L19)*(Sheet1!L21+Sheet1!K21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M20">
+        <f>(heads!L19-heads!M19)*(Sheet1!M21+Sheet1!L21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N20">
+        <f>(heads!M19-heads!N19)*(Sheet1!N21+Sheet1!M21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O20">
+        <f>(heads!N19-heads!O19)*(Sheet1!O21+Sheet1!N21)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P20">
+        <f>(heads!O19-heads!P19)*(Sheet1!P21+Sheet1!O21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q20">
+        <f>(heads!P19-heads!Q19)*(Sheet1!Q21+Sheet1!P21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R20">
+        <f>(heads!Q19-heads!R19)*(Sheet1!R21+Sheet1!Q21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S20">
+        <f>(heads!R19-heads!S19)*(Sheet1!S21+Sheet1!R21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T20">
+        <f>(heads!S19-heads!T19)*(Sheet1!T21+Sheet1!S21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U20">
+        <f>(heads!T19-heads!U19)*(Sheet1!U21+Sheet1!T21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V20">
+        <f>(heads!U19-heads!V19)*(Sheet1!V21+Sheet1!U21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W20">
+        <f>(heads!V19-heads!W19)*(Sheet1!W21+Sheet1!V21)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X20">
+        <f>(heads!W19-heads!X19)*(Sheet1!X21+Sheet1!W21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y20">
+        <f>(heads!X19-heads!Y19)*(Sheet1!Y21+Sheet1!X21)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z20">
+        <f>(heads!Y19-heads!Z19)*(Sheet1!Z21+Sheet1!Y21)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f>(heads!B20-heads!C20)*(Sheet1!C22+Sheet1!B22)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D21">
+        <f>(heads!C20-heads!D20)*(Sheet1!D22+Sheet1!C22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E21">
+        <f>(heads!D20-heads!E20)*(Sheet1!E22+Sheet1!D22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F21">
+        <f>(heads!E20-heads!F20)*(Sheet1!F22+Sheet1!E22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G21">
+        <f>(heads!F20-heads!G20)*(Sheet1!G22+Sheet1!F22)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H21">
+        <f>(heads!G20-heads!H20)*(Sheet1!H22+Sheet1!G22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I21">
+        <f>(heads!H20-heads!I20)*(Sheet1!I22+Sheet1!H22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J21">
+        <f>(heads!I20-heads!J20)*(Sheet1!J22+Sheet1!I22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K21">
+        <f>(heads!J20-heads!K20)*(Sheet1!K22+Sheet1!J22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L21">
+        <f>(heads!K20-heads!L20)*(Sheet1!L22+Sheet1!K22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M21">
+        <f>(heads!L20-heads!M20)*(Sheet1!M22+Sheet1!L22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N21">
+        <f>(heads!M20-heads!N20)*(Sheet1!N22+Sheet1!M22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O21">
+        <f>(heads!N20-heads!O20)*(Sheet1!O22+Sheet1!N22)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P21">
+        <f>(heads!O20-heads!P20)*(Sheet1!P22+Sheet1!O22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q21">
+        <f>(heads!P20-heads!Q20)*(Sheet1!Q22+Sheet1!P22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R21">
+        <f>(heads!Q20-heads!R20)*(Sheet1!R22+Sheet1!Q22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S21">
+        <f>(heads!R20-heads!S20)*(Sheet1!S22+Sheet1!R22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T21">
+        <f>(heads!S20-heads!T20)*(Sheet1!T22+Sheet1!S22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U21">
+        <f>(heads!T20-heads!U20)*(Sheet1!U22+Sheet1!T22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V21">
+        <f>(heads!U20-heads!V20)*(Sheet1!V22+Sheet1!U22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W21">
+        <f>(heads!V20-heads!W20)*(Sheet1!W22+Sheet1!V22)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X21">
+        <f>(heads!W20-heads!X20)*(Sheet1!X22+Sheet1!W22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y21">
+        <f>(heads!X20-heads!Y20)*(Sheet1!Y22+Sheet1!X22)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z21">
+        <f>(heads!Y20-heads!Z20)*(Sheet1!Z22+Sheet1!Y22)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f>(heads!B21-heads!C21)*(Sheet1!C23+Sheet1!B23)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D22">
+        <f>(heads!C21-heads!D21)*(Sheet1!D23+Sheet1!C23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E22">
+        <f>(heads!D21-heads!E21)*(Sheet1!E23+Sheet1!D23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F22">
+        <f>(heads!E21-heads!F21)*(Sheet1!F23+Sheet1!E23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G22">
+        <f>(heads!F21-heads!G21)*(Sheet1!G23+Sheet1!F23)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H22">
+        <f>(heads!G21-heads!H21)*(Sheet1!H23+Sheet1!G23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I22">
+        <f>(heads!H21-heads!I21)*(Sheet1!I23+Sheet1!H23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J22">
+        <f>(heads!I21-heads!J21)*(Sheet1!J23+Sheet1!I23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K22">
+        <f>(heads!J21-heads!K21)*(Sheet1!K23+Sheet1!J23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L22">
+        <f>(heads!K21-heads!L21)*(Sheet1!L23+Sheet1!K23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M22">
+        <f>(heads!L21-heads!M21)*(Sheet1!M23+Sheet1!L23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N22">
+        <f>(heads!M21-heads!N21)*(Sheet1!N23+Sheet1!M23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O22">
+        <f>(heads!N21-heads!O21)*(Sheet1!O23+Sheet1!N23)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P22">
+        <f>(heads!O21-heads!P21)*(Sheet1!P23+Sheet1!O23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q22">
+        <f>(heads!P21-heads!Q21)*(Sheet1!Q23+Sheet1!P23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R22">
+        <f>(heads!Q21-heads!R21)*(Sheet1!R23+Sheet1!Q23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S22">
+        <f>(heads!R21-heads!S21)*(Sheet1!S23+Sheet1!R23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T22">
+        <f>(heads!S21-heads!T21)*(Sheet1!T23+Sheet1!S23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U22">
+        <f>(heads!T21-heads!U21)*(Sheet1!U23+Sheet1!T23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V22">
+        <f>(heads!U21-heads!V21)*(Sheet1!V23+Sheet1!U23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W22">
+        <f>(heads!V21-heads!W21)*(Sheet1!W23+Sheet1!V23)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X22">
+        <f>(heads!W21-heads!X21)*(Sheet1!X23+Sheet1!W23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y22">
+        <f>(heads!X21-heads!Y21)*(Sheet1!Y23+Sheet1!X23)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z22">
+        <f>(heads!Y21-heads!Z21)*(Sheet1!Z23+Sheet1!Y23)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>(heads!B22-heads!C22)*(Sheet1!C24+Sheet1!B24)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D23">
+        <f>(heads!C22-heads!D22)*(Sheet1!D24+Sheet1!C24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E23">
+        <f>(heads!D22-heads!E22)*(Sheet1!E24+Sheet1!D24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F23">
+        <f>(heads!E22-heads!F22)*(Sheet1!F24+Sheet1!E24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G23">
+        <f>(heads!F22-heads!G22)*(Sheet1!G24+Sheet1!F24)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H23">
+        <f>(heads!G22-heads!H22)*(Sheet1!H24+Sheet1!G24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I23">
+        <f>(heads!H22-heads!I22)*(Sheet1!I24+Sheet1!H24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J23">
+        <f>(heads!I22-heads!J22)*(Sheet1!J24+Sheet1!I24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K23">
+        <f>(heads!J22-heads!K22)*(Sheet1!K24+Sheet1!J24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L23">
+        <f>(heads!K22-heads!L22)*(Sheet1!L24+Sheet1!K24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M23">
+        <f>(heads!L22-heads!M22)*(Sheet1!M24+Sheet1!L24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N23">
+        <f>(heads!M22-heads!N22)*(Sheet1!N24+Sheet1!M24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O23">
+        <f>(heads!N22-heads!O22)*(Sheet1!O24+Sheet1!N24)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P23">
+        <f>(heads!O22-heads!P22)*(Sheet1!P24+Sheet1!O24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q23">
+        <f>(heads!P22-heads!Q22)*(Sheet1!Q24+Sheet1!P24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R23">
+        <f>(heads!Q22-heads!R22)*(Sheet1!R24+Sheet1!Q24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S23">
+        <f>(heads!R22-heads!S22)*(Sheet1!S24+Sheet1!R24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T23">
+        <f>(heads!S22-heads!T22)*(Sheet1!T24+Sheet1!S24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U23">
+        <f>(heads!T22-heads!U22)*(Sheet1!U24+Sheet1!T24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V23">
+        <f>(heads!U22-heads!V22)*(Sheet1!V24+Sheet1!U24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W23">
+        <f>(heads!V22-heads!W22)*(Sheet1!W24+Sheet1!V24)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X23">
+        <f>(heads!W22-heads!X22)*(Sheet1!X24+Sheet1!W24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y23">
+        <f>(heads!X22-heads!Y22)*(Sheet1!Y24+Sheet1!X24)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z23">
+        <f>(heads!Y22-heads!Z22)*(Sheet1!Z24+Sheet1!Y24)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <f>(heads!B23-heads!C23)*(Sheet1!C25+Sheet1!B25)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D24">
+        <f>(heads!C23-heads!D23)*(Sheet1!D25+Sheet1!C25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E24">
+        <f>(heads!D23-heads!E23)*(Sheet1!E25+Sheet1!D25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F24">
+        <f>(heads!E23-heads!F23)*(Sheet1!F25+Sheet1!E25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G24">
+        <f>(heads!F23-heads!G23)*(Sheet1!G25+Sheet1!F25)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H24">
+        <f>(heads!G23-heads!H23)*(Sheet1!H25+Sheet1!G25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I24">
+        <f>(heads!H23-heads!I23)*(Sheet1!I25+Sheet1!H25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J24">
+        <f>(heads!I23-heads!J23)*(Sheet1!J25+Sheet1!I25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K24">
+        <f>(heads!J23-heads!K23)*(Sheet1!K25+Sheet1!J25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L24">
+        <f>(heads!K23-heads!L23)*(Sheet1!L25+Sheet1!K25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M24">
+        <f>(heads!L23-heads!M23)*(Sheet1!M25+Sheet1!L25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N24">
+        <f>(heads!M23-heads!N23)*(Sheet1!N25+Sheet1!M25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O24">
+        <f>(heads!N23-heads!O23)*(Sheet1!O25+Sheet1!N25)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P24">
+        <f>(heads!O23-heads!P23)*(Sheet1!P25+Sheet1!O25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q24">
+        <f>(heads!P23-heads!Q23)*(Sheet1!Q25+Sheet1!P25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R24">
+        <f>(heads!Q23-heads!R23)*(Sheet1!R25+Sheet1!Q25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S24">
+        <f>(heads!R23-heads!S23)*(Sheet1!S25+Sheet1!R25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T24">
+        <f>(heads!S23-heads!T23)*(Sheet1!T25+Sheet1!S25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U24">
+        <f>(heads!T23-heads!U23)*(Sheet1!U25+Sheet1!T25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V24">
+        <f>(heads!U23-heads!V23)*(Sheet1!V25+Sheet1!U25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W24">
+        <f>(heads!V23-heads!W23)*(Sheet1!W25+Sheet1!V25)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X24">
+        <f>(heads!W23-heads!X23)*(Sheet1!X25+Sheet1!W25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y24">
+        <f>(heads!X23-heads!Y23)*(Sheet1!Y25+Sheet1!X25)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z24">
+        <f>(heads!Y23-heads!Z23)*(Sheet1!Z25+Sheet1!Y25)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f>(heads!B24-heads!C24)*(Sheet1!C26+Sheet1!B26)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D25">
+        <f>(heads!C24-heads!D24)*(Sheet1!D26+Sheet1!C26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E25">
+        <f>(heads!D24-heads!E24)*(Sheet1!E26+Sheet1!D26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F25">
+        <f>(heads!E24-heads!F24)*(Sheet1!F26+Sheet1!E26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G25">
+        <f>(heads!F24-heads!G24)*(Sheet1!G26+Sheet1!F26)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H25">
+        <f>(heads!G24-heads!H24)*(Sheet1!H26+Sheet1!G26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I25">
+        <f>(heads!H24-heads!I24)*(Sheet1!I26+Sheet1!H26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J25">
+        <f>(heads!I24-heads!J24)*(Sheet1!J26+Sheet1!I26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K25">
+        <f>(heads!J24-heads!K24)*(Sheet1!K26+Sheet1!J26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L25">
+        <f>(heads!K24-heads!L24)*(Sheet1!L26+Sheet1!K26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M25">
+        <f>(heads!L24-heads!M24)*(Sheet1!M26+Sheet1!L26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N25">
+        <f>(heads!M24-heads!N24)*(Sheet1!N26+Sheet1!M26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O25">
+        <f>(heads!N24-heads!O24)*(Sheet1!O26+Sheet1!N26)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P25">
+        <f>(heads!O24-heads!P24)*(Sheet1!P26+Sheet1!O26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q25">
+        <f>(heads!P24-heads!Q24)*(Sheet1!Q26+Sheet1!P26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R25">
+        <f>(heads!Q24-heads!R24)*(Sheet1!R26+Sheet1!Q26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S25">
+        <f>(heads!R24-heads!S24)*(Sheet1!S26+Sheet1!R26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T25">
+        <f>(heads!S24-heads!T24)*(Sheet1!T26+Sheet1!S26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U25">
+        <f>(heads!T24-heads!U24)*(Sheet1!U26+Sheet1!T26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V25">
+        <f>(heads!U24-heads!V24)*(Sheet1!V26+Sheet1!U26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W25">
+        <f>(heads!V24-heads!W24)*(Sheet1!W26+Sheet1!V26)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X25">
+        <f>(heads!W24-heads!X24)*(Sheet1!X26+Sheet1!W26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y25">
+        <f>(heads!X24-heads!Y24)*(Sheet1!Y26+Sheet1!X26)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z25">
+        <f>(heads!Y24-heads!Z24)*(Sheet1!Z26+Sheet1!Y26)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <f>(heads!B25-heads!C25)*(Sheet1!C27+Sheet1!B27)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D26">
+        <f>(heads!C25-heads!D25)*(Sheet1!D27+Sheet1!C27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E26">
+        <f>(heads!D25-heads!E25)*(Sheet1!E27+Sheet1!D27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F26">
+        <f>(heads!E25-heads!F25)*(Sheet1!F27+Sheet1!E27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G26">
+        <f>(heads!F25-heads!G25)*(Sheet1!G27+Sheet1!F27)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H26">
+        <f>(heads!G25-heads!H25)*(Sheet1!H27+Sheet1!G27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I26">
+        <f>(heads!H25-heads!I25)*(Sheet1!I27+Sheet1!H27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J26">
+        <f>(heads!I25-heads!J25)*(Sheet1!J27+Sheet1!I27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K26">
+        <f>(heads!J25-heads!K25)*(Sheet1!K27+Sheet1!J27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L26">
+        <f>(heads!K25-heads!L25)*(Sheet1!L27+Sheet1!K27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M26">
+        <f>(heads!L25-heads!M25)*(Sheet1!M27+Sheet1!L27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N26">
+        <f>(heads!M25-heads!N25)*(Sheet1!N27+Sheet1!M27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O26">
+        <f>(heads!N25-heads!O25)*(Sheet1!O27+Sheet1!N27)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P26">
+        <f>(heads!O25-heads!P25)*(Sheet1!P27+Sheet1!O27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q26">
+        <f>(heads!P25-heads!Q25)*(Sheet1!Q27+Sheet1!P27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R26">
+        <f>(heads!Q25-heads!R25)*(Sheet1!R27+Sheet1!Q27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S26">
+        <f>(heads!R25-heads!S25)*(Sheet1!S27+Sheet1!R27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T26">
+        <f>(heads!S25-heads!T25)*(Sheet1!T27+Sheet1!S27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U26">
+        <f>(heads!T25-heads!U25)*(Sheet1!U27+Sheet1!T27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V26">
+        <f>(heads!U25-heads!V25)*(Sheet1!V27+Sheet1!U27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W26">
+        <f>(heads!V25-heads!W25)*(Sheet1!W27+Sheet1!V27)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X26">
+        <f>(heads!W25-heads!X25)*(Sheet1!X27+Sheet1!W27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y26">
+        <f>(heads!X25-heads!Y25)*(Sheet1!Y27+Sheet1!X27)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z26">
+        <f>(heads!Y25-heads!Z25)*(Sheet1!Z27+Sheet1!Y27)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f>(heads!B26-heads!C26)*(Sheet1!C28+Sheet1!B28)</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="D27">
+        <f>(heads!C26-heads!D26)*(Sheet1!D28+Sheet1!C28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="E27">
+        <f>(heads!D26-heads!E26)*(Sheet1!E28+Sheet1!D28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="F27">
+        <f>(heads!E26-heads!F26)*(Sheet1!F28+Sheet1!E28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="G27">
+        <f>(heads!F26-heads!G26)*(Sheet1!G28+Sheet1!F28)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="H27">
+        <f>(heads!G26-heads!H26)*(Sheet1!H28+Sheet1!G28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="I27">
+        <f>(heads!H26-heads!I26)*(Sheet1!I28+Sheet1!H28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="J27">
+        <f>(heads!I26-heads!J26)*(Sheet1!J28+Sheet1!I28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="K27">
+        <f>(heads!J26-heads!K26)*(Sheet1!K28+Sheet1!J28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="L27">
+        <f>(heads!K26-heads!L26)*(Sheet1!L28+Sheet1!K28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="M27">
+        <f>(heads!L26-heads!M26)*(Sheet1!M28+Sheet1!L28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="N27">
+        <f>(heads!M26-heads!N26)*(Sheet1!N28+Sheet1!M28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="O27">
+        <f>(heads!N26-heads!O26)*(Sheet1!O28+Sheet1!N28)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="P27">
+        <f>(heads!O26-heads!P26)*(Sheet1!P28+Sheet1!O28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q27">
+        <f>(heads!P26-heads!Q26)*(Sheet1!Q28+Sheet1!P28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="R27">
+        <f>(heads!Q26-heads!R26)*(Sheet1!R28+Sheet1!Q28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="S27">
+        <f>(heads!R26-heads!S26)*(Sheet1!S28+Sheet1!R28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="T27">
+        <f>(heads!S26-heads!T26)*(Sheet1!T28+Sheet1!S28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="U27">
+        <f>(heads!T26-heads!U26)*(Sheet1!U28+Sheet1!T28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="V27">
+        <f>(heads!U26-heads!V26)*(Sheet1!V28+Sheet1!U28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="W27">
+        <f>(heads!V26-heads!W26)*(Sheet1!W28+Sheet1!V28)</f>
+        <v>0.43999999999999773</v>
+      </c>
+      <c r="X27">
+        <f>(heads!W26-heads!X26)*(Sheet1!X28+Sheet1!W28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Y27">
+        <f>(heads!X26-heads!Y26)*(Sheet1!Y28+Sheet1!X28)</f>
+        <v>0.41999999999999815</v>
+      </c>
+      <c r="Z27">
+        <f>(heads!Y26-heads!Z26)*(Sheet1!Z28+Sheet1!Y28)</f>
+        <v>0.42000000000000171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/HW2/Heads_BoxModel.xlsx
+++ b/HW2/Heads_BoxModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52e2a0924c8968bf/Documents/SPRING21/582-GWMod/hw-PortilloD/HW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{E3C48FDA-D960-444D-98A6-6B95A72A3257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F7BAA63E-90BD-4BA4-B0C5-E81FF9A56CA6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{E3C48FDA-D960-444D-98A6-6B95A72A3257}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{81B2E0F9-8529-4620-9827-DF97B5082F8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7635" yWindow="0" windowWidth="18240" windowHeight="14370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoxModel_Manual_update" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
           <c:x val="2.7996382939255889E-2"/>
           <c:y val="5.7726551145383408E-2"/>
           <c:w val="0.94684317650047822"/>
-          <c:h val="0.88233393835823803"/>
+          <c:h val="0.86278009686375268"/>
         </c:manualLayout>
       </c:layout>
       <c:surfaceChart>
@@ -4094,6 +4094,32 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lx (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47057401322255304"/>
+              <c:y val="0.94647412368111827"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4145,6 +4171,32 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ly (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20306966458250922"/>
+              <c:y val="0.45425361699402117"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4193,7 +4245,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88606212944531915"/>
+          <c:x val="0.80594812858429699"/>
           <c:y val="0.3408647326973348"/>
           <c:w val="7.3010065766984808E-2"/>
           <c:h val="0.31002372210607115"/>
@@ -5615,8 +5667,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>458931</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7079,8 +7131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11264,7 +11316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22E6296-262C-4EF7-9937-E15E979C812F}">
   <dimension ref="A2:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
